--- a/output/fit_clients/fit_round_123.xlsx
+++ b/output/fit_clients/fit_round_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2091630943.111855</v>
+        <v>1981662353.872926</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09911614498932526</v>
+        <v>0.08346290704830391</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04447612355401553</v>
+        <v>0.03365101205196887</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1045815479.498149</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1751137750.118943</v>
+        <v>2030829947.663211</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1511668536150644</v>
+        <v>0.1420432578467198</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03577164952093225</v>
+        <v>0.03866254676618447</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>875568876.5304683</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4497927158.284047</v>
+        <v>3203945791.844388</v>
       </c>
       <c r="F4" t="n">
-        <v>0.149135293995321</v>
+        <v>0.1203186174215192</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02811306219398365</v>
+        <v>0.02503558785101459</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>45</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2248963628.552737</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3356589457.029426</v>
+        <v>3422084489.209055</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06978121474434612</v>
+        <v>0.08906468239004499</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04523041656519176</v>
+        <v>0.04909503277077275</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>46</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1678294774.729172</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2145370170.371739</v>
+        <v>2253171812.854075</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1312490635614959</v>
+        <v>0.1029116076722822</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05667705451707168</v>
+        <v>0.04511471038191345</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1072685098.998965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3078438446.926311</v>
+        <v>3050362449.982082</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08604666432362873</v>
+        <v>0.08912048924839645</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03411478408280675</v>
+        <v>0.03363389567591961</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>36</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1539219180.737871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2754099126.446906</v>
+        <v>2811006719.842012</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1719059896562706</v>
+        <v>0.2073955384481815</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02291394784666265</v>
+        <v>0.03313774681888371</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>39</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1377049595.550473</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1735140272.776061</v>
+        <v>2303686156.672774</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1948695165737523</v>
+        <v>0.130654599229019</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02418456822785114</v>
+        <v>0.03201458674518984</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>867570199.7049879</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4981745545.965134</v>
+        <v>5242956381.828849</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1560937589932417</v>
+        <v>0.1497978598846528</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03411759172094431</v>
+        <v>0.05378934567799194</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>52</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2490872870.815927</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3364699518.338934</v>
+        <v>3733650917.800521</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1766527275415214</v>
+        <v>0.1506244790974305</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04449706103432852</v>
+        <v>0.04654444026208543</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>51</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1682349727.493663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3127207263.176407</v>
+        <v>3203469978.057007</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1907176997224547</v>
+        <v>0.1467269771847465</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04978092750547472</v>
+        <v>0.04227165153260441</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>43</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1563603661.193267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3791437096.158742</v>
+        <v>5036036907.896175</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08597162966758166</v>
+        <v>0.06982269015399331</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03031384486387253</v>
+        <v>0.02693764043011062</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>41</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1895718613.545062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2975194723.547085</v>
+        <v>3550312649.582878</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1782230796191423</v>
+        <v>0.166801385111059</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03662873026978172</v>
+        <v>0.04273688005178899</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>39</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1487597397.96784</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1423897745.152814</v>
+        <v>1126665235.755386</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09651049522041839</v>
+        <v>0.09202417428090517</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03097839549769773</v>
+        <v>0.03765112716225899</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>711948940.7703006</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2171664217.814029</v>
+        <v>2818197663.079359</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09695528162806966</v>
+        <v>0.09665511401990663</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03461298476358287</v>
+        <v>0.03449292346265993</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>19</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1085832169.011686</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3631490121.779519</v>
+        <v>3857159950.688052</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1349838743560161</v>
+        <v>0.1596090872382706</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04411976089295834</v>
+        <v>0.04677152023777584</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>36</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1815745113.599401</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2527991523.579762</v>
+        <v>3397501856.235112</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1827220905704321</v>
+        <v>0.1834252485107049</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03020987101276841</v>
+        <v>0.02802416669158584</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>40</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1263995826.168988</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1239671333.258128</v>
+        <v>1026734399.534351</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1674048541308542</v>
+        <v>0.1390794427780045</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02617972648471097</v>
+        <v>0.02472040203600827</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>619835754.1576217</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2661924489.860232</v>
+        <v>2583776913.965097</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1557730860964966</v>
+        <v>0.09926597859806105</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03107200310000165</v>
+        <v>0.02606763863396691</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>17</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1330962200.724851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2555544329.135015</v>
+        <v>2201385046.395473</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07091057248418933</v>
+        <v>0.07651399715721319</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03808789980119258</v>
+        <v>0.0301255368273358</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1277772147.353241</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3242222021.521706</v>
+        <v>2730871044.938457</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1194872801789507</v>
+        <v>0.1221810727580128</v>
       </c>
       <c r="G22" t="n">
-        <v>0.043185619195948</v>
+        <v>0.04828073178939021</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>34</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1621111057.736305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1141524796.792341</v>
+        <v>1335662935.876036</v>
       </c>
       <c r="F23" t="n">
-        <v>0.163824175205218</v>
+        <v>0.1526690459015606</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05281133355434736</v>
+        <v>0.03370567692166775</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>570762444.679727</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3540374880.030541</v>
+        <v>2710522675.579064</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1281655442709498</v>
+        <v>0.1220069828204547</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03740548244391763</v>
+        <v>0.02556765327049763</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>36</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1770187438.869809</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1110141225.738601</v>
+        <v>977879025.2136399</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1175575627000397</v>
+        <v>0.1182071722359409</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02364896857685687</v>
+        <v>0.03094010146854579</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>555070651.4604784</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1148203511.412314</v>
+        <v>1118753879.866997</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09706125173825594</v>
+        <v>0.08614601043726783</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03040672504017726</v>
+        <v>0.02868607168111348</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>574101764.0553474</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3807884526.177772</v>
+        <v>3627264829.449192</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1237444686577131</v>
+        <v>0.1526642517872309</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02493085764552869</v>
+        <v>0.02245304137830178</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>29</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1903942282.758873</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2798681572.898199</v>
+        <v>2775435896.967548</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1389455291687024</v>
+        <v>0.1001231251955773</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03266892975739086</v>
+        <v>0.03832944119558604</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>40</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1399340780.140738</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5061694267.34503</v>
+        <v>4116989487.238324</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1017005680959456</v>
+        <v>0.1261804668253832</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04601533761433026</v>
+        <v>0.04349928548275235</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>57</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2530847076.951654</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2401152212.401169</v>
+        <v>2306677227.559882</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1172285031147652</v>
+        <v>0.1252195862238469</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03326335396063899</v>
+        <v>0.02832933483797813</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1200576189.278397</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>964874455.2193561</v>
+        <v>941881891.4542941</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1114376428460673</v>
+        <v>0.09035451579168534</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0452979726840347</v>
+        <v>0.04657026032156229</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>482437234.3678547</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1299192889.396884</v>
+        <v>1263429760.368768</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07734597210920949</v>
+        <v>0.110324941892849</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02756840266454408</v>
+        <v>0.03236299703262316</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>649596471.4078783</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2767131933.212108</v>
+        <v>2878284097.246068</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1669052054561512</v>
+        <v>0.1684518701252222</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0441340720989541</v>
+        <v>0.0520745688587021</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>36</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1383565982.007932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1099223933.377703</v>
+        <v>1163319772.65142</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0800349318035341</v>
+        <v>0.08597244620673163</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02443949766662433</v>
+        <v>0.02554471119171659</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>549611988.2626369</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>841901403.41062</v>
+        <v>1149999374.00798</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07805452358643629</v>
+        <v>0.1050043167164482</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03113056343572198</v>
+        <v>0.03718352716249945</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>420950754.9081443</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3058813371.111577</v>
+        <v>2866394439.111888</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1361057733285575</v>
+        <v>0.1267056838215614</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02424964479215364</v>
+        <v>0.02599105445619689</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>31</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1529406662.706478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2515032216.988407</v>
+        <v>2732750929.466108</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07718988229568419</v>
+        <v>0.08393464689525618</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04128251774374241</v>
+        <v>0.04198493174880864</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>32</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1257516206.595138</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2197339253.31374</v>
+        <v>1789074155.606946</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09985192561796916</v>
+        <v>0.1084174282942788</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03434116570714985</v>
+        <v>0.03160134907192369</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1098669577.355742</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1841656117.835596</v>
+        <v>2204797816.944108</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1303385032147355</v>
+        <v>0.1443153883901637</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02014360439821552</v>
+        <v>0.02305444346742998</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>920828077.4426123</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1637286611.889742</v>
+        <v>1668341001.834757</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1112927771796692</v>
+        <v>0.1450101820481487</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05072088829507487</v>
+        <v>0.03667960036222289</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>818643237.7271134</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1873615388.102569</v>
+        <v>2712226768.57739</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1075162698244477</v>
+        <v>0.1398603882902892</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04364842631313687</v>
+        <v>0.02979968546193535</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>30</v>
-      </c>
-      <c r="J41" t="n">
-        <v>936807780.6270726</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2627426808.286608</v>
+        <v>2780768088.521492</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0776307516326486</v>
+        <v>0.08526381278298896</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02811122300402306</v>
+        <v>0.03512275212147756</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>40</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1313713338.86748</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2661511233.659249</v>
+        <v>2623395859.572897</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1527241014303196</v>
+        <v>0.1726186072898541</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01567376668122019</v>
+        <v>0.01976774637886914</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>39</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1330755649.179303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1952023438.492301</v>
+        <v>2262721373.215661</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09574344309269894</v>
+        <v>0.06814163296536221</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02260428931724109</v>
+        <v>0.03147925673199665</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>976011815.9583522</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2035679051.632723</v>
+        <v>2434278002.102358</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1678029871166716</v>
+        <v>0.1230223068795937</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03930156057690022</v>
+        <v>0.04823734564322975</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1017839520.203558</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4311105250.096762</v>
+        <v>4128748829.204716</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1663686238795574</v>
+        <v>0.1208217313043699</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03870659109925794</v>
+        <v>0.03709434355111281</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>44</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2155552612.334726</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4657333222.416592</v>
+        <v>3543139925.358073</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1431567921193558</v>
+        <v>0.1545559135480733</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03890165329189187</v>
+        <v>0.04764630550482953</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>33</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2328666647.54174</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3691218599.076006</v>
+        <v>4153723473.542737</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1008732204475669</v>
+        <v>0.07377288800755992</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03600838455544835</v>
+        <v>0.03747053998418555</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>43</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1845609351.823599</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1304180045.965472</v>
+        <v>1514911444.363951</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1419297787404988</v>
+        <v>0.1373492704029345</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02865680700467051</v>
+        <v>0.02847596861800027</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>652090085.4017527</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3476145383.888615</v>
+        <v>2941398058.602139</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1107070006525378</v>
+        <v>0.1179109174167166</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0330288194966709</v>
+        <v>0.05307271332063755</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>42</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1738072717.851471</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1045796358.799316</v>
+        <v>1441360628.110167</v>
       </c>
       <c r="F51" t="n">
-        <v>0.160705517037844</v>
+        <v>0.130726982057701</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05086133877387687</v>
+        <v>0.0507672115625339</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>522898255.8992489</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4099177368.310714</v>
+        <v>4046185994.129602</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09267152631891344</v>
+        <v>0.09486281760357126</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04011011030301501</v>
+        <v>0.05712276159648445</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>51</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2049588734.748126</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2411223330.023435</v>
+        <v>2684203331.913835</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1733479538598098</v>
+        <v>0.1711524167491267</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0346515941135595</v>
+        <v>0.03200105023791748</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>35</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1205611738.047011</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4289687112.070774</v>
+        <v>3429203702.908091</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1647430560392287</v>
+        <v>0.1553792517890892</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04542107432487535</v>
+        <v>0.04078506030023397</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>43</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2144843642.806767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3872174922.964725</v>
+        <v>3264052549.093287</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1852694788062011</v>
+        <v>0.1423542435309266</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02259094448409883</v>
+        <v>0.02503313044791175</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>32</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1936087430.718921</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1299626654.109278</v>
+        <v>1805796236.512568</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1261661924144732</v>
+        <v>0.1132244453838206</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03999562628526257</v>
+        <v>0.04711369954129533</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>649813398.9483825</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4294995058.896223</v>
+        <v>3457959318.669745</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1539979037687848</v>
+        <v>0.1227035845607687</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02311596479385789</v>
+        <v>0.01875637773867428</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>40</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2147497642.531696</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1590999296.872337</v>
+        <v>1174184752.563054</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1961033754023571</v>
+        <v>0.1988403142085339</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03013244778186583</v>
+        <v>0.02437960875937956</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>795499671.2174476</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4865969342.895844</v>
+        <v>3757456004.863015</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08670925717705377</v>
+        <v>0.09395116272205231</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04187429620863867</v>
+        <v>0.04589891118584872</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>35</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2432984605.587747</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3778079424.812605</v>
+        <v>3712350594.818297</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1357541836226916</v>
+        <v>0.1752856353709892</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02820166763657047</v>
+        <v>0.02318900308740357</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>38</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1889039864.296319</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2375019153.554384</v>
+        <v>3256997305.404254</v>
       </c>
       <c r="F61" t="n">
-        <v>0.166481886999323</v>
+        <v>0.1400343700851403</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02836679105895714</v>
+        <v>0.02151393023799259</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>42</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1187509616.13153</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2033011065.6846</v>
+        <v>1408930179.133899</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1415812711089517</v>
+        <v>0.1629240015732402</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03897886101412364</v>
+        <v>0.03988259789624523</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1016505595.826997</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4153394699.635105</v>
+        <v>3391670381.029833</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1019671635167117</v>
+        <v>0.07731360708481742</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04410776307840009</v>
+        <v>0.03769897168181335</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>36</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2076697405.297252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4747539634.790421</v>
+        <v>4628952168.10216</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1245081673088956</v>
+        <v>0.1586965277962823</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03534935847744061</v>
+        <v>0.03352327401383959</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>38</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2373769905.787569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5333658038.441211</v>
+        <v>4024822528.329745</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1631069723138127</v>
+        <v>0.1172143120351136</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02716992017171872</v>
+        <v>0.03041671762579837</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>45</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2666828958.157235</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3662305311.982794</v>
+        <v>4546471522.418206</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1072771647866759</v>
+        <v>0.1121211859378702</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03336471046168318</v>
+        <v>0.04221149722088575</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>36</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1831152611.45049</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2269822057.34834</v>
+        <v>2199216352.686073</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06467181927275245</v>
+        <v>0.08734644254511843</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04732560807647114</v>
+        <v>0.03221297366766137</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>39</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1134911108.715811</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5955176837.454419</v>
+        <v>5518864743.335167</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1199538020872532</v>
+        <v>0.1545548957991448</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04854096804875634</v>
+        <v>0.03154798628323166</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>39</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2977588532.946658</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1880086642.694678</v>
+        <v>1992676836.750936</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1275276510132747</v>
+        <v>0.1686583273192057</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04208956659305395</v>
+        <v>0.0385405419094772</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>940043310.7654995</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2510325068.276932</v>
+        <v>3266957314.296608</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06381920949236744</v>
+        <v>0.0895023820132127</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03717267721581793</v>
+        <v>0.04928006624967233</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>35</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1255162479.226126</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4746995764.589476</v>
+        <v>4936764871.492498</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1367819415303835</v>
+        <v>0.1328790009743736</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02727999977743993</v>
+        <v>0.02082118369361198</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>45</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2373497969.046735</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1387309824.623381</v>
+        <v>1971831178.402626</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09515640180440683</v>
+        <v>0.06650436725416513</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04218345209974295</v>
+        <v>0.03455868335592653</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>693654957.4294317</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3100677973.160511</v>
+        <v>3014404688.846171</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09480480369858761</v>
+        <v>0.1073526995870206</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04360324109928584</v>
+        <v>0.04903350495761389</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>47</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1550338973.273388</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2682281533.786337</v>
+        <v>3298952191.247217</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1492470387962006</v>
+        <v>0.1564586338433012</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03426666822674176</v>
+        <v>0.02879407352868231</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>42</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1341140859.663393</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2042661043.90199</v>
+        <v>1926751226.019814</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1252544697511256</v>
+        <v>0.1600468704218105</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03161378761536363</v>
+        <v>0.02443747518623316</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1021330482.037965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5283559045.543853</v>
+        <v>4309207803.998144</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1185875762545085</v>
+        <v>0.08076170148151879</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02382091384885157</v>
+        <v>0.02761594943474225</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>28</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2641779561.298809</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1416062847.594594</v>
+        <v>2180811614.508472</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1244098315031439</v>
+        <v>0.1290512103764817</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01917535764381862</v>
+        <v>0.02729347411120046</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>708031399.0370497</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3736421679.097054</v>
+        <v>3304243408.940634</v>
       </c>
       <c r="F78" t="n">
-        <v>0.109034815310303</v>
+        <v>0.1116340655846449</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03896021154757218</v>
+        <v>0.04812052386459238</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>43</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1868210824.066974</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1830659748.154729</v>
+        <v>1788640887.032777</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1727497450761268</v>
+        <v>0.115760759448813</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02842464448720125</v>
+        <v>0.03655095592470635</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>915329966.0909853</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4396122338.6673</v>
+        <v>5481845683.191611</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1099452028601284</v>
+        <v>0.1102830440403917</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02714966035886101</v>
+        <v>0.03101996660659498</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>26</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2198061188.45304</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3556450932.497475</v>
+        <v>3828514530.340559</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09649571783542825</v>
+        <v>0.1038778209951738</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03306946846569193</v>
+        <v>0.02968336688463817</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>30</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1778225412.944165</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4442566808.739924</v>
+        <v>4038285024.910071</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2090995947633401</v>
+        <v>0.1586289491851544</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02691495820348964</v>
+        <v>0.01873388873356464</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>46</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2221283419.340004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2099658141.483904</v>
+        <v>1719723062.075522</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1425768562990544</v>
+        <v>0.10486010047242</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03050122038052543</v>
+        <v>0.03758999593326323</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1049829068.427222</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2374140013.746833</v>
+        <v>1823455012.610942</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1147335076188954</v>
+        <v>0.1026353014493716</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04848682091248122</v>
+        <v>0.03547931686649482</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1187069957.01521</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2748144705.79415</v>
+        <v>3115943311.056842</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1566262101711963</v>
+        <v>0.1666102812064769</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0501696025934068</v>
+        <v>0.05532267568975682</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>47</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1374072385.187825</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2437013593.655371</v>
+        <v>2658424043.617152</v>
       </c>
       <c r="F86" t="n">
-        <v>0.12119323441976</v>
+        <v>0.1249505327169528</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02513630230144828</v>
+        <v>0.02310671470459549</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>12</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1218506885.186816</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1117417019.988233</v>
+        <v>1075828113.244125</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1498649840196756</v>
+        <v>0.1331294614704277</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03341689768308951</v>
+        <v>0.03285175015953033</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>558708544.3681365</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2384241406.580748</v>
+        <v>2876866058.001616</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1658582672234546</v>
+        <v>0.1218278288727827</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03819395941711556</v>
+        <v>0.03608301582907702</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>49</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1192120672.846593</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2902354031.944539</v>
+        <v>2187458574.726949</v>
       </c>
       <c r="F89" t="n">
-        <v>0.118794112123756</v>
+        <v>0.119947344151698</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02920615631200185</v>
+        <v>0.03325713179532093</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>42</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1451177061.18712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1485589338.260255</v>
+        <v>1905405916.637519</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09111091015698272</v>
+        <v>0.1070232790893122</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03888832765908914</v>
+        <v>0.0367777313196714</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>742794645.20347</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1663546179.381355</v>
+        <v>1268783228.282123</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1861486619008347</v>
+        <v>0.1203177116231339</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03727555030097543</v>
+        <v>0.04713676272234501</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>831773106.7467457</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2017077620.147575</v>
+        <v>2561800124.403715</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08606407384923682</v>
+        <v>0.08169153220464823</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03745761498491174</v>
+        <v>0.02896436765204766</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>30</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1008538757.511905</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4687988483.131714</v>
+        <v>3435736638.216692</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1044260759284687</v>
+        <v>0.1333590024094023</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04914156060676789</v>
+        <v>0.05259957373502778</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>36</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2343994197.666333</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1907039076.688351</v>
+        <v>1754852386.023172</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1272829311000754</v>
+        <v>0.139431753778999</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03016828852753243</v>
+        <v>0.02719591881161892</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>953519524.5139343</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2636657640.796607</v>
+        <v>2356988085.257433</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1206116417840261</v>
+        <v>0.09197375705137813</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04529667833260365</v>
+        <v>0.04412702605020505</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>30</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1318328846.504288</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2207332500.352926</v>
+        <v>2340212697.923779</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1246033443998762</v>
+        <v>0.1034210990490568</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04647187754932476</v>
+        <v>0.03071782685605164</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1103666214.975587</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4908671060.880735</v>
+        <v>3409133902.69325</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1496353769051804</v>
+        <v>0.110916385827215</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01826710104612559</v>
+        <v>0.02722643837401814</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>41</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2454335659.837566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3136860079.964358</v>
+        <v>3131226632.21613</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1169353425067532</v>
+        <v>0.1162483070413798</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02711331181995164</v>
+        <v>0.0214674058965379</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>32</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1568430033.903612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2402477275.20991</v>
+        <v>2629894233.79666</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1415018077799422</v>
+        <v>0.0908079162603791</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02305409310231272</v>
+        <v>0.02209176240060231</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>37</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1201238580.199623</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4436726205.4863</v>
+        <v>4674442650.584987</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1752916149823288</v>
+        <v>0.1347919718996482</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01940358032000263</v>
+        <v>0.01927388088737637</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>37</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2218363208.22408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3301971298.196227</v>
+        <v>2935297849.175714</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1346102740631679</v>
+        <v>0.1535291271501303</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03874408378633364</v>
+        <v>0.04807901732463937</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>51</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1650985778.000452</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_123.xlsx
+++ b/output/fit_clients/fit_round_123.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1981662353.872926</v>
+        <v>2283420610.769789</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08346290704830391</v>
+        <v>0.0818149876405435</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03365101205196887</v>
+        <v>0.03725898898804168</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2030829947.663211</v>
+        <v>2268846764.821271</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1420432578467198</v>
+        <v>0.1485690672138919</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03866254676618447</v>
+        <v>0.04852204015503055</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3203945791.844388</v>
+        <v>5013042935.340657</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1203186174215192</v>
+        <v>0.1409229665654283</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02503558785101459</v>
+        <v>0.03631038735827993</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3422084489.209055</v>
+        <v>2835118727.910508</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08906468239004499</v>
+        <v>0.08775822985444118</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04909503277077275</v>
+        <v>0.04148349019523767</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2253171812.854075</v>
+        <v>2755096204.287394</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1029116076722822</v>
+        <v>0.1194672870577731</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04511471038191345</v>
+        <v>0.03775055990543243</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3050362449.982082</v>
+        <v>2511381002.496273</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08912048924839645</v>
+        <v>0.07400847738503956</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03363389567591961</v>
+        <v>0.03602526289243912</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2811006719.842012</v>
+        <v>3192546229.315994</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2073955384481815</v>
+        <v>0.2060689847208346</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03313774681888371</v>
+        <v>0.03213042485684655</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2303686156.672774</v>
+        <v>1695456742.350124</v>
       </c>
       <c r="F9" t="n">
-        <v>0.130654599229019</v>
+        <v>0.1417536653485069</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03201458674518984</v>
+        <v>0.03538381105468696</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5242956381.828849</v>
+        <v>5504750112.763296</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1497978598846528</v>
+        <v>0.174795068037251</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05378934567799194</v>
+        <v>0.05131659447480335</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3733650917.800521</v>
+        <v>3232719293.780808</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1506244790974305</v>
+        <v>0.1731144245888553</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04654444026208543</v>
+        <v>0.04717505665823437</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3203469978.057007</v>
+        <v>2072107156.715811</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1467269771847465</v>
+        <v>0.1712613421140489</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04227165153260441</v>
+        <v>0.04573770467225806</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5036036907.896175</v>
+        <v>5151015516.145185</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06982269015399331</v>
+        <v>0.09725988998607374</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02693764043011062</v>
+        <v>0.02587019687595683</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3550312649.582878</v>
+        <v>3524318309.04686</v>
       </c>
       <c r="F14" t="n">
-        <v>0.166801385111059</v>
+        <v>0.159041367956443</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04273688005178899</v>
+        <v>0.04142601945751424</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1126665235.755386</v>
+        <v>1608477393.975827</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09202417428090517</v>
+        <v>0.09755546240844229</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03765112716225899</v>
+        <v>0.04456289055592164</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2818197663.079359</v>
+        <v>2752318207.093584</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09665511401990663</v>
+        <v>0.1008761291752646</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03449292346265993</v>
+        <v>0.04665640133016341</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3857159950.688052</v>
+        <v>5184929859.09537</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1596090872382706</v>
+        <v>0.1688551011662697</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04677152023777584</v>
+        <v>0.04102713773478422</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3397501856.235112</v>
+        <v>3257567215.096976</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1834252485107049</v>
+        <v>0.1369498619126474</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02802416669158584</v>
+        <v>0.03244704906390785</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1026734399.534351</v>
+        <v>1205348659.415977</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1390794427780045</v>
+        <v>0.1380353610310983</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02472040203600827</v>
+        <v>0.0274173864489596</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2583776913.965097</v>
+        <v>2739205963.273008</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09926597859806105</v>
+        <v>0.1580979825682199</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02606763863396691</v>
+        <v>0.02935137034438266</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2201385046.395473</v>
+        <v>2170875880.052632</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07651399715721319</v>
+        <v>0.0769741991488985</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0301255368273358</v>
+        <v>0.04524848107997522</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2730871044.938457</v>
+        <v>3358918575.503637</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1221810727580128</v>
+        <v>0.1175488499514124</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04828073178939021</v>
+        <v>0.03722094548823363</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1335662935.876036</v>
+        <v>1115049460.93456</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1526690459015606</v>
+        <v>0.1291551952664007</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03370567692166775</v>
+        <v>0.04700670180352174</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2710522675.579064</v>
+        <v>2940000059.382108</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1220069828204547</v>
+        <v>0.1480316693338444</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02556765327049763</v>
+        <v>0.02634643358569433</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>977879025.2136399</v>
+        <v>976438203.3841689</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1182071722359409</v>
+        <v>0.1037815902723822</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03094010146854579</v>
+        <v>0.02386747235947117</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1118753879.866997</v>
+        <v>1036268405.105027</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08614601043726783</v>
+        <v>0.08844135381511056</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02868607168111348</v>
+        <v>0.03649879810619977</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3627264829.449192</v>
+        <v>3439205220.928694</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1526642517872309</v>
+        <v>0.1276830158573524</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02245304137830178</v>
+        <v>0.02363217486955378</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2775435896.967548</v>
+        <v>2642920363.111877</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1001231251955773</v>
+        <v>0.117359552373129</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03832944119558604</v>
+        <v>0.04362278095243801</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4116989487.238324</v>
+        <v>3819945184.727716</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1261804668253832</v>
+        <v>0.1488452027842104</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04349928548275235</v>
+        <v>0.03791841281866149</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2306677227.559882</v>
+        <v>1964310628.726392</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1252195862238469</v>
+        <v>0.1203718350136915</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02832933483797813</v>
+        <v>0.03247330909809876</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>941881891.4542941</v>
+        <v>1458747733.944499</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09035451579168534</v>
+        <v>0.0821459401645693</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04657026032156229</v>
+        <v>0.05073080166425414</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1263429760.368768</v>
+        <v>1835030594.450563</v>
       </c>
       <c r="F32" t="n">
-        <v>0.110324941892849</v>
+        <v>0.07582205470883401</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03236299703262316</v>
+        <v>0.02728239259654995</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2878284097.246068</v>
+        <v>2191109665.172149</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1684518701252222</v>
+        <v>0.1943057279024234</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0520745688587021</v>
+        <v>0.0477859755593894</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1163319772.65142</v>
+        <v>1167034343.745856</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08597244620673163</v>
+        <v>0.0831520167632169</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02554471119171659</v>
+        <v>0.02656840632647749</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1149999374.00798</v>
+        <v>1275591008.481925</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1050043167164482</v>
+        <v>0.07739484249938798</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03718352716249945</v>
+        <v>0.03891395868335058</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2866394439.111888</v>
+        <v>3012799784.326518</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1267056838215614</v>
+        <v>0.1673323426127146</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02599105445619689</v>
+        <v>0.02786859839427811</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2732750929.466108</v>
+        <v>1980991993.922388</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08393464689525618</v>
+        <v>0.08623888214447606</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04198493174880864</v>
+        <v>0.03578446889058731</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1789074155.606946</v>
+        <v>1382946755.463477</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1084174282942788</v>
+        <v>0.07924566769020081</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03160134907192369</v>
+        <v>0.02564182252246902</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2204797816.944108</v>
+        <v>1647460529.237629</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1443153883901637</v>
+        <v>0.1277124004078095</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02305444346742998</v>
+        <v>0.02795154772645619</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1668341001.834757</v>
+        <v>1271334794.078602</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1450101820481487</v>
+        <v>0.1164108257578047</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03667960036222289</v>
+        <v>0.05940596938281806</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2712226768.57739</v>
+        <v>2753465430.935228</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1398603882902892</v>
+        <v>0.1439057114603724</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02979968546193535</v>
+        <v>0.04173796163481518</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2780768088.521492</v>
+        <v>3172667115.101519</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08526381278298896</v>
+        <v>0.09449113069891631</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03512275212147756</v>
+        <v>0.03919026232590113</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2623395859.572897</v>
+        <v>3038747351.719499</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1726186072898541</v>
+        <v>0.139401567274023</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01976774637886914</v>
+        <v>0.02523689941868078</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2262721373.215661</v>
+        <v>1894392837.781113</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06814163296536221</v>
+        <v>0.09894733484308348</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03147925673199665</v>
+        <v>0.02709871517492917</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2434278002.102358</v>
+        <v>1598327103.98128</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1230223068795937</v>
+        <v>0.1621186346000626</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04823734564322975</v>
+        <v>0.0387184168344285</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4128748829.204716</v>
+        <v>4079736491.891485</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1208217313043699</v>
+        <v>0.1197833607980534</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03709434355111281</v>
+        <v>0.05541637522351576</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3543139925.358073</v>
+        <v>4504974057.193578</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1545559135480733</v>
+        <v>0.1569958279629653</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04764630550482953</v>
+        <v>0.05751458461873975</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4153723473.542737</v>
+        <v>3986675309.381114</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07377288800755992</v>
+        <v>0.1060499621763041</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03747053998418555</v>
+        <v>0.03604877096144819</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1514911444.363951</v>
+        <v>1220542617.025126</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1373492704029345</v>
+        <v>0.160799012641639</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02847596861800027</v>
+        <v>0.03026047362707311</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2941398058.602139</v>
+        <v>3851502848.077151</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1179109174167166</v>
+        <v>0.1455601914711522</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05307271332063755</v>
+        <v>0.04882897029431776</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1441360628.110167</v>
+        <v>1200152879.403665</v>
       </c>
       <c r="F51" t="n">
-        <v>0.130726982057701</v>
+        <v>0.1635892625318513</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0507672115625339</v>
+        <v>0.04378903393323624</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4046185994.129602</v>
+        <v>4497801700.268185</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09486281760357126</v>
+        <v>0.1147561201955372</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05712276159648445</v>
+        <v>0.06082441334046035</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2684203331.913835</v>
+        <v>3725729904.844375</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1711524167491267</v>
+        <v>0.1750979462089861</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03200105023791748</v>
+        <v>0.03463150431232855</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3429203702.908091</v>
+        <v>4585443488.70408</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1553792517890892</v>
+        <v>0.1068117164994004</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04078506030023397</v>
+        <v>0.0409963610063941</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3264052549.093287</v>
+        <v>3732719525.343817</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1423542435309266</v>
+        <v>0.1589740911036416</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02503313044791175</v>
+        <v>0.02983085591665809</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1805796236.512568</v>
+        <v>1788988455.481979</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1132244453838206</v>
+        <v>0.1150238784281549</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04711369954129533</v>
+        <v>0.04795975383649304</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3457959318.669745</v>
+        <v>3522503592.877158</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1227035845607687</v>
+        <v>0.1678714463415711</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01875637773867428</v>
+        <v>0.02223820521014305</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1174184752.563054</v>
+        <v>1885973557.292025</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1988403142085339</v>
+        <v>0.1458795267919083</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02437960875937956</v>
+        <v>0.03460926153303295</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3757456004.863015</v>
+        <v>3750316093.994781</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09395116272205231</v>
+        <v>0.1198228939539201</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04589891118584872</v>
+        <v>0.03381118368527151</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3712350594.818297</v>
+        <v>2802161686.907209</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1752856353709892</v>
+        <v>0.1950389667179625</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02318900308740357</v>
+        <v>0.02951170351133633</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3256997305.404254</v>
+        <v>3336467715.282697</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1400343700851403</v>
+        <v>0.1553984799617036</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02151393023799259</v>
+        <v>0.02296282149246943</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1408930179.133899</v>
+        <v>1757261889.547088</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1629240015732402</v>
+        <v>0.124777331738613</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03988259789624523</v>
+        <v>0.0340166863193118</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3391670381.029833</v>
+        <v>5385143293.357015</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07731360708481742</v>
+        <v>0.09551918822503666</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03769897168181335</v>
+        <v>0.04240109561019356</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4628952168.10216</v>
+        <v>3941994649.686534</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1586965277962823</v>
+        <v>0.1228901881140043</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03352327401383959</v>
+        <v>0.02862026520202535</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4024822528.329745</v>
+        <v>5918794353.915591</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1172143120351136</v>
+        <v>0.1282489109052843</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03041671762579837</v>
+        <v>0.02618803566190518</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4546471522.418206</v>
+        <v>3521213456.914523</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1121211859378702</v>
+        <v>0.1327369238349899</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04221149722088575</v>
+        <v>0.03380212563030162</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2199216352.686073</v>
+        <v>3302230774.555795</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08734644254511843</v>
+        <v>0.1004968874504255</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03221297366766137</v>
+        <v>0.04360751285669414</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2334,13 +2334,13 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5518864743.335167</v>
+        <v>5026764864.355937</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1545548957991448</v>
+        <v>0.1276556010788228</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03154798628323166</v>
+        <v>0.04864226247572764</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1992676836.750936</v>
+        <v>1950239617.423467</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1686583273192057</v>
+        <v>0.1116752496287647</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0385405419094772</v>
+        <v>0.03962335000780855</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3266957314.296608</v>
+        <v>2360150858.030844</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0895023820132127</v>
+        <v>0.08037205755406666</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04928006624967233</v>
+        <v>0.04608469269043915</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4936764871.492498</v>
+        <v>3505691068.458629</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1328790009743736</v>
+        <v>0.1529989926662177</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02082118369361198</v>
+        <v>0.02715485738944828</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1971831178.402626</v>
+        <v>2173952698.787762</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06650436725416513</v>
+        <v>0.09359623407853422</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03455868335592653</v>
+        <v>0.04707181121737269</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3014404688.846171</v>
+        <v>2322071604.415498</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1073526995870206</v>
+        <v>0.1113941114287133</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04903350495761389</v>
+        <v>0.04638325865960977</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3298952191.247217</v>
+        <v>3567323263.948376</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1564586338433012</v>
+        <v>0.1263619489497062</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02879407352868231</v>
+        <v>0.02393366232687512</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1926751226.019814</v>
+        <v>1596718219.452486</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1600468704218105</v>
+        <v>0.1317060517457738</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02443747518623316</v>
+        <v>0.02824966538779264</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4309207803.998144</v>
+        <v>3534743696.010069</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08076170148151879</v>
+        <v>0.1049641807929842</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02761594943474225</v>
+        <v>0.03104708265858602</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2180811614.508472</v>
+        <v>2043847361.866465</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1290512103764817</v>
+        <v>0.1201918669675204</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02729347411120046</v>
+        <v>0.02160644461678428</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3304243408.940634</v>
+        <v>4524940259.705291</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1116340655846449</v>
+        <v>0.101189431891066</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04812052386459238</v>
+        <v>0.04832896673808253</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1788640887.032777</v>
+        <v>1426694093.471739</v>
       </c>
       <c r="F79" t="n">
-        <v>0.115760759448813</v>
+        <v>0.1730477989051703</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03655095592470635</v>
+        <v>0.02875665761795017</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5481845683.191611</v>
+        <v>3428130911.071156</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1102830440403917</v>
+        <v>0.09835827436384559</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03101996660659498</v>
+        <v>0.02763195290221359</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3828514530.340559</v>
+        <v>3832087465.011151</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1038778209951738</v>
+        <v>0.1054656861356116</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02968336688463817</v>
+        <v>0.03170677164400601</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4038285024.910071</v>
+        <v>4691520115.947595</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1586289491851544</v>
+        <v>0.1362801956975927</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01873388873356464</v>
+        <v>0.02598338180825572</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1719723062.075522</v>
+        <v>2349956370.105013</v>
       </c>
       <c r="F83" t="n">
-        <v>0.10486010047242</v>
+        <v>0.1369097192276443</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03758999593326323</v>
+        <v>0.04171190075699498</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1823455012.610942</v>
+        <v>1736774054.88937</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1026353014493716</v>
+        <v>0.08300879163478184</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03547931686649482</v>
+        <v>0.0388264889218374</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3115943311.056842</v>
+        <v>2895014612.674428</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1666102812064769</v>
+        <v>0.1289220780809729</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05532267568975682</v>
+        <v>0.04353686890130474</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2658424043.617152</v>
+        <v>2618363070.433991</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1249505327169528</v>
+        <v>0.1566888621335557</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02310671470459549</v>
+        <v>0.0180010799843338</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1075828113.244125</v>
+        <v>1506869431.34286</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1331294614704277</v>
+        <v>0.1811371991847068</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03285175015953033</v>
+        <v>0.03552670160922797</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2876866058.001616</v>
+        <v>2249973023.048495</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1218278288727827</v>
+        <v>0.1316787368626845</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03608301582907702</v>
+        <v>0.03189872011594194</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2187458574.726949</v>
+        <v>3203699916.355962</v>
       </c>
       <c r="F89" t="n">
-        <v>0.119947344151698</v>
+        <v>0.1321519808249557</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03325713179532093</v>
+        <v>0.0297934181913473</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1905405916.637519</v>
+        <v>2123092565.109185</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1070232790893122</v>
+        <v>0.09713362630052218</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0367777313196714</v>
+        <v>0.03606742487037021</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1268783228.282123</v>
+        <v>1953529822.249815</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1203177116231339</v>
+        <v>0.1499862946918134</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04713676272234501</v>
+        <v>0.06197492262918503</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2561800124.403715</v>
+        <v>2637552400.211664</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08169153220464823</v>
+        <v>0.07088969521981155</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02896436765204766</v>
+        <v>0.02886722076185321</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3435736638.216692</v>
+        <v>3744467300.711452</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1333590024094023</v>
+        <v>0.0976145131673546</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05259957373502778</v>
+        <v>0.04066001407226651</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3062,16 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1754852386.023172</v>
+        <v>1873729363.058265</v>
       </c>
       <c r="F94" t="n">
-        <v>0.139431753778999</v>
+        <v>0.168106902019207</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02719591881161892</v>
+        <v>0.02915152875103521</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2356988085.257433</v>
+        <v>2026287364.128887</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09197375705137813</v>
+        <v>0.1152169946417324</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04412702605020505</v>
+        <v>0.04511572820193396</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,16 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2340212697.923779</v>
+        <v>1469283503.099424</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1034210990490568</v>
+        <v>0.09312760281457973</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03071782685605164</v>
+        <v>0.04201385804271109</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3409133902.69325</v>
+        <v>4693638983.763507</v>
       </c>
       <c r="F97" t="n">
-        <v>0.110916385827215</v>
+        <v>0.1361455527529786</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02722643837401814</v>
+        <v>0.01960070903161741</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3131226632.21613</v>
+        <v>3732037113.40344</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1162483070413798</v>
+        <v>0.1024907763243559</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0214674058965379</v>
+        <v>0.02387202797188724</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2629894233.79666</v>
+        <v>3020539768.436292</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0908079162603791</v>
+        <v>0.1268104887779386</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02209176240060231</v>
+        <v>0.02272800123340674</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4674442650.584987</v>
+        <v>3678467878.27903</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1347919718996482</v>
+        <v>0.1678019944514358</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01927388088737637</v>
+        <v>0.02214938095242733</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2935297849.175714</v>
+        <v>3503381993.090332</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1535291271501303</v>
+        <v>0.1911691696401022</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04807901732463937</v>
+        <v>0.05127973028148894</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_123.xlsx
+++ b/output/fit_clients/fit_round_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2283420610.769789</v>
+        <v>2157689701.50945</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0818149876405435</v>
+        <v>0.112676970331228</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03725898898804168</v>
+        <v>0.02755670399976911</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2268846764.821271</v>
+        <v>2367517135.824543</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1485690672138919</v>
+        <v>0.1627088673476444</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04852204015503055</v>
+        <v>0.04582087669396347</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5013042935.340657</v>
+        <v>4487354526.813972</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1409229665654283</v>
+        <v>0.1345070727797341</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03631038735827993</v>
+        <v>0.0334950248447911</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>74</v>
+      </c>
+      <c r="J4" t="n">
+        <v>122</v>
+      </c>
+      <c r="K4" t="n">
+        <v>148.4267165599127</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2835118727.910508</v>
+        <v>3632020518.399424</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08775822985444118</v>
+        <v>0.09062405621406162</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04148349019523767</v>
+        <v>0.0421961696096626</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>49</v>
+      </c>
+      <c r="J5" t="n">
+        <v>123</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2755096204.287394</v>
+        <v>2316332345.826612</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1194672870577731</v>
+        <v>0.1159151538242776</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03775055990543243</v>
+        <v>0.04904987655920097</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2511381002.496273</v>
+        <v>2665725601.156759</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07400847738503956</v>
+        <v>0.07769358147332425</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03602526289243912</v>
+        <v>0.04230068446897872</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3192546229.315994</v>
+        <v>3308278430.894771</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2060689847208346</v>
+        <v>0.1559005325578422</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03213042485684655</v>
+        <v>0.02283872506469839</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>35</v>
+      </c>
+      <c r="J8" t="n">
+        <v>123</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1695456742.350124</v>
+        <v>2103469447.579799</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1417536653485069</v>
+        <v>0.1411024932033687</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03538381105468696</v>
+        <v>0.0308613213181989</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5504750112.763296</v>
+        <v>4334506540.325142</v>
       </c>
       <c r="F10" t="n">
-        <v>0.174795068037251</v>
+        <v>0.162254363144946</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05131659447480335</v>
+        <v>0.03334121522021976</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>112</v>
+      </c>
+      <c r="J10" t="n">
+        <v>123</v>
+      </c>
+      <c r="K10" t="n">
+        <v>159.8818098299134</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +820,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3232719293.780808</v>
+        <v>3828691864.433284</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1731144245888553</v>
+        <v>0.1467417994102953</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04717505665823437</v>
+        <v>0.04029649185308884</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>52</v>
+      </c>
+      <c r="J11" t="n">
+        <v>123</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2072107156.715811</v>
+        <v>3028881807.242315</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1712613421140489</v>
+        <v>0.1471944055669524</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04573770467225806</v>
+        <v>0.04495049615822746</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5151015516.145185</v>
+        <v>3941061303.419024</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09725988998607374</v>
+        <v>0.07447816489996001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02587019687595683</v>
+        <v>0.02735876692427137</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>60</v>
+      </c>
+      <c r="J13" t="n">
+        <v>122</v>
+      </c>
+      <c r="K13" t="n">
+        <v>116.2019903237306</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3524318309.04686</v>
+        <v>2603171433.833797</v>
       </c>
       <c r="F14" t="n">
-        <v>0.159041367956443</v>
+        <v>0.1715761505434226</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04142601945751424</v>
+        <v>0.04167176546150219</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>22</v>
+      </c>
+      <c r="J14" t="n">
+        <v>115</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1608477393.975827</v>
+        <v>1465583436.691239</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09755546240844229</v>
+        <v>0.09343077829091645</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04456289055592164</v>
+        <v>0.03525222848293398</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2752318207.093584</v>
+        <v>2808588057.512599</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1008761291752646</v>
+        <v>0.08229672201437269</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04665640133016341</v>
+        <v>0.04665957340332841</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5184929859.09537</v>
+        <v>4785604402.119718</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1688551011662697</v>
+        <v>0.1746186105332218</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04102713773478422</v>
+        <v>0.03629481893316335</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>59</v>
+      </c>
+      <c r="J17" t="n">
+        <v>123</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3257567215.096976</v>
+        <v>3756912995.611075</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1369498619126474</v>
+        <v>0.1218791629229649</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03244704906390785</v>
+        <v>0.02438777838886667</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>32</v>
+      </c>
+      <c r="J18" t="n">
+        <v>123</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1205348659.415977</v>
+        <v>836625490.1683487</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1380353610310983</v>
+        <v>0.123719895871012</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0274173864489596</v>
+        <v>0.02613761812464084</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2739205963.273008</v>
+        <v>2061106788.200209</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1580979825682199</v>
+        <v>0.1184142737407807</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02935137034438266</v>
+        <v>0.02210343433434091</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2170875880.052632</v>
+        <v>2608899853.266999</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0769741991488985</v>
+        <v>0.08726177336999155</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04524848107997522</v>
+        <v>0.04153676329166751</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1207,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3358918575.503637</v>
+        <v>3297942703.559237</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1175488499514124</v>
+        <v>0.08768776266223671</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03722094548823363</v>
+        <v>0.03531881740254154</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>32</v>
+      </c>
+      <c r="J22" t="n">
+        <v>123</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1115049460.93456</v>
+        <v>1495054147.897347</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1291551952664007</v>
+        <v>0.1158067546712048</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04700670180352174</v>
+        <v>0.05153173081016039</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1277,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2940000059.382108</v>
+        <v>2903500513.851331</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1480316693338444</v>
+        <v>0.1331144391188817</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02634643358569433</v>
+        <v>0.03423767728860307</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>37</v>
+      </c>
+      <c r="J24" t="n">
+        <v>121</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1312,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>976438203.3841689</v>
+        <v>1360387381.934481</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1037815902723822</v>
+        <v>0.1056212081313341</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02386747235947117</v>
+        <v>0.02286615387609144</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1036268405.105027</v>
+        <v>1038824478.560301</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08844135381511056</v>
+        <v>0.07842591971663841</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03649879810619977</v>
+        <v>0.03111159279564661</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1376,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3439205220.928694</v>
+        <v>3401419014.831382</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1276830158573524</v>
+        <v>0.1216684125623152</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02363217486955378</v>
+        <v>0.02637869126259864</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>49</v>
+      </c>
+      <c r="J27" t="n">
+        <v>122</v>
+      </c>
+      <c r="K27" t="n">
+        <v>74.51226492797018</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1413,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2642920363.111877</v>
+        <v>2351032042.659194</v>
       </c>
       <c r="F28" t="n">
-        <v>0.117359552373129</v>
+        <v>0.138935997283159</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04362278095243801</v>
+        <v>0.03221400263318486</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>27</v>
+      </c>
+      <c r="J28" t="n">
+        <v>122</v>
+      </c>
+      <c r="K28" t="n">
+        <v>42.37257490447706</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3819945184.727716</v>
+        <v>3949222121.870473</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1488452027842104</v>
+        <v>0.1351989130417981</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03791841281866149</v>
+        <v>0.03900098669426347</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>114</v>
+      </c>
+      <c r="J29" t="n">
+        <v>122</v>
+      </c>
+      <c r="K29" t="n">
+        <v>140.7893599050394</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1964310628.726392</v>
+        <v>1595166166.409353</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1203718350136915</v>
+        <v>0.09801454942683969</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03247330909809876</v>
+        <v>0.03953900215224372</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1458747733.944499</v>
+        <v>1478696734.555538</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0821459401645693</v>
+        <v>0.092871899679318</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05073080166425414</v>
+        <v>0.04629533136345361</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1835030594.450563</v>
+        <v>1306628733.622073</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07582205470883401</v>
+        <v>0.1143282082537775</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02728239259654995</v>
+        <v>0.02769514236367881</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2191109665.172149</v>
+        <v>2066258107.258667</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1943057279024234</v>
+        <v>0.2028936693012302</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0477859755593894</v>
+        <v>0.05536633290524498</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1167034343.745856</v>
+        <v>1131260104.318069</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0831520167632169</v>
+        <v>0.101301577501504</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02656840632647749</v>
+        <v>0.02552722833301142</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1275591008.481925</v>
+        <v>1107961012.423739</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07739484249938798</v>
+        <v>0.07266778054461423</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03891395868335058</v>
+        <v>0.04247171900344463</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3012799784.326518</v>
+        <v>2945023444.990146</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1673323426127146</v>
+        <v>0.1506027071517931</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02786859839427811</v>
+        <v>0.02347219588085613</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1980991993.922388</v>
+        <v>2110079349.950073</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08623888214447606</v>
+        <v>0.1108330648608785</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03578446889058731</v>
+        <v>0.03182776015571663</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1382946755.463477</v>
+        <v>1551632764.172695</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07924566769020081</v>
+        <v>0.09293479118430191</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02564182252246902</v>
+        <v>0.02855803840545885</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1647460529.237629</v>
+        <v>1564541699.961451</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1277124004078095</v>
+        <v>0.173925530214428</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02795154772645619</v>
+        <v>0.03273659948184298</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1271334794.078602</v>
+        <v>1435655217.447906</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1164108257578047</v>
+        <v>0.137958782231712</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05940596938281806</v>
+        <v>0.05932743297337032</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2753465430.935228</v>
+        <v>2859297601.840498</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1439057114603724</v>
+        <v>0.1544371344261352</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04173796163481518</v>
+        <v>0.03081899695534192</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3172667115.101519</v>
+        <v>2747583857.2387</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09449113069891631</v>
+        <v>0.1198846610593615</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03919026232590113</v>
+        <v>0.04262508828385095</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>44</v>
+      </c>
+      <c r="J42" t="n">
+        <v>121</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3038747351.719499</v>
+        <v>1993489098.64369</v>
       </c>
       <c r="F43" t="n">
-        <v>0.139401567274023</v>
+        <v>0.181197270823572</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02523689941868078</v>
+        <v>0.01736803676138675</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1894392837.781113</v>
+        <v>1789320300.970368</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09894733484308348</v>
+        <v>0.1004747400094645</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02709871517492917</v>
+        <v>0.03240210457330647</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1598327103.98128</v>
+        <v>1809931911.728149</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1621186346000626</v>
+        <v>0.1637847329809979</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0387184168344285</v>
+        <v>0.04118975330051467</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2053,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4079736491.891485</v>
+        <v>4659609874.358152</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1197833607980534</v>
+        <v>0.1782959867422678</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05541637522351576</v>
+        <v>0.05501199595386044</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>71</v>
+      </c>
+      <c r="J46" t="n">
+        <v>122</v>
+      </c>
+      <c r="K46" t="n">
+        <v>152.5107943173098</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2090,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4504974057.193578</v>
+        <v>3815327849.687666</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1569958279629653</v>
+        <v>0.1761969865306413</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05751458461873975</v>
+        <v>0.04283163162469286</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>54</v>
+      </c>
+      <c r="J47" t="n">
+        <v>123</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3986675309.381114</v>
+        <v>3736449890.430429</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1060499621763041</v>
+        <v>0.07635360090275876</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03604877096144819</v>
+        <v>0.02819412107807044</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>48</v>
+      </c>
+      <c r="J48" t="n">
+        <v>122</v>
+      </c>
+      <c r="K48" t="n">
+        <v>108.9830311171224</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1220542617.025126</v>
+        <v>1546711084.269472</v>
       </c>
       <c r="F49" t="n">
-        <v>0.160799012641639</v>
+        <v>0.1198322869233738</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03026047362707311</v>
+        <v>0.0283421614995602</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3851502848.077151</v>
+        <v>3035708756.951585</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1455601914711522</v>
+        <v>0.1232764324216765</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04882897029431776</v>
+        <v>0.04797624130739719</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>42</v>
+      </c>
+      <c r="J50" t="n">
+        <v>120</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1200152879.403665</v>
+        <v>1075636784.810826</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1635892625318513</v>
+        <v>0.1422348834096269</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04378903393323624</v>
+        <v>0.03603080491177611</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4497801700.268185</v>
+        <v>5218963637.958054</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1147561201955372</v>
+        <v>0.1162535272783085</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06082441334046035</v>
+        <v>0.04684522566658853</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>95</v>
+      </c>
+      <c r="J52" t="n">
+        <v>123</v>
+      </c>
+      <c r="K52" t="n">
+        <v>154.3294758503818</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3725729904.844375</v>
+        <v>2964761006.241037</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1750979462089861</v>
+        <v>0.1953037384328626</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03463150431232855</v>
+        <v>0.02551811200889687</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>14</v>
+      </c>
+      <c r="J53" t="n">
+        <v>121</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4585443488.70408</v>
+        <v>4891752240.300018</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1068117164994004</v>
+        <v>0.1700355514505536</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0409963610063941</v>
+        <v>0.03745938267779378</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>57</v>
+      </c>
+      <c r="J54" t="n">
+        <v>122</v>
+      </c>
+      <c r="K54" t="n">
+        <v>150.683502062795</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3732719525.343817</v>
+        <v>4418365233.714085</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1589740911036416</v>
+        <v>0.1349507662352838</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02983085591665809</v>
+        <v>0.02897430838013174</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>56</v>
+      </c>
+      <c r="J55" t="n">
+        <v>123</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1788988455.481979</v>
+        <v>1464474537.337464</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1150238784281549</v>
+        <v>0.140750695355666</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04795975383649304</v>
+        <v>0.03704423634591986</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2446,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3522503592.877158</v>
+        <v>4125181310.604734</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1678714463415711</v>
+        <v>0.1464711754732085</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02223820521014305</v>
+        <v>0.02504465755966547</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>47</v>
+      </c>
+      <c r="J57" t="n">
+        <v>123</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1885973557.292025</v>
+        <v>1399877452.378238</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1458795267919083</v>
+        <v>0.1974077933252956</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03460926153303295</v>
+        <v>0.03125422137858116</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3750316093.994781</v>
+        <v>4594560988.521514</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1198228939539201</v>
+        <v>0.1067042218802083</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03381118368527151</v>
+        <v>0.03818416309670175</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>60</v>
+      </c>
+      <c r="J59" t="n">
+        <v>122</v>
+      </c>
+      <c r="K59" t="n">
+        <v>140.4417617467583</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2802161686.907209</v>
+        <v>3045491321.902022</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1950389667179625</v>
+        <v>0.1532521306301857</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02951170351133633</v>
+        <v>0.03285931220401962</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>18</v>
+      </c>
+      <c r="J60" t="n">
+        <v>118</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2588,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3336467715.282697</v>
+        <v>2546036584.710139</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1553984799617036</v>
+        <v>0.1384838602008048</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02296282149246943</v>
+        <v>0.02899735704019002</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>118</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1757261889.547088</v>
+        <v>1708861654.185278</v>
       </c>
       <c r="F62" t="n">
-        <v>0.124777331738613</v>
+        <v>0.1724744218207347</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0340166863193118</v>
+        <v>0.04883500722755431</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2658,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5385143293.357015</v>
+        <v>5131354198.747383</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09551918822503666</v>
+        <v>0.08400381355351924</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04240109561019356</v>
+        <v>0.04236652842221137</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>61</v>
+      </c>
+      <c r="J63" t="n">
+        <v>122</v>
+      </c>
+      <c r="K63" t="n">
+        <v>136.4427715561118</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3941994649.686534</v>
+        <v>4756154223.29218</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1228901881140043</v>
+        <v>0.1493101680205238</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02862026520202535</v>
+        <v>0.02946475090077194</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>61</v>
+      </c>
+      <c r="J64" t="n">
+        <v>122</v>
+      </c>
+      <c r="K64" t="n">
+        <v>143.9054354147365</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5918794353.915591</v>
+        <v>5283190416.030761</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1282489109052843</v>
+        <v>0.1399261713826456</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02618803566190518</v>
+        <v>0.02537236877892826</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>102</v>
+      </c>
+      <c r="J65" t="n">
+        <v>123</v>
+      </c>
+      <c r="K65" t="n">
+        <v>155.2454378227175</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2769,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3521213456.914523</v>
+        <v>4774769377.666546</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1327369238349899</v>
+        <v>0.1586546176401439</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03380212563030162</v>
+        <v>0.03842513087201374</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>60</v>
+      </c>
+      <c r="J66" t="n">
+        <v>123</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3302230774.555795</v>
+        <v>2765190493.915672</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1004968874504255</v>
+        <v>0.07881623007963481</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04360751285669414</v>
+        <v>0.03261331207252196</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5026764864.355937</v>
+        <v>5191787977.043067</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1276556010788228</v>
+        <v>0.1219474718751706</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04864226247572764</v>
+        <v>0.03571153999807337</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>61</v>
+      </c>
+      <c r="J68" t="n">
+        <v>123</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1950239617.423467</v>
+        <v>1560774202.117757</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1116752496287647</v>
+        <v>0.1816457598270581</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03962335000780855</v>
+        <v>0.05906913345067109</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2360150858.030844</v>
+        <v>2673746010.754922</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08037205755406666</v>
+        <v>0.08337163872058459</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04608469269043915</v>
+        <v>0.04141798964020706</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>14</v>
+      </c>
+      <c r="J70" t="n">
+        <v>114</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2944,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3505691068.458629</v>
+        <v>5037765259.501201</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1529989926662177</v>
+        <v>0.1813118144432385</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02715485738944828</v>
+        <v>0.02240617149808406</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>99</v>
+      </c>
+      <c r="J71" t="n">
+        <v>123</v>
+      </c>
+      <c r="K71" t="n">
+        <v>153.4690660144148</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2173952698.787762</v>
+        <v>1833653837.674812</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09359623407853422</v>
+        <v>0.06861938828874352</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04707181121737269</v>
+        <v>0.04972387419965293</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2322071604.415498</v>
+        <v>3005999020.135503</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1113941114287133</v>
+        <v>0.0986932853729774</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04638325865960977</v>
+        <v>0.03685565697370127</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>9</v>
+      </c>
+      <c r="J73" t="n">
+        <v>118</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3051,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3567323263.948376</v>
+        <v>3303481483.267829</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1263619489497062</v>
+        <v>0.12384627662166</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02393366232687512</v>
+        <v>0.02211713080085975</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>41</v>
+      </c>
+      <c r="J74" t="n">
+        <v>123</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1596718219.452486</v>
+        <v>2459849053.309662</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1317060517457738</v>
+        <v>0.1355829644904342</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02824966538779264</v>
+        <v>0.03706463506068586</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3534743696.010069</v>
+        <v>3297651230.85212</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1049641807929842</v>
+        <v>0.09843541827139649</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03104708265858602</v>
+        <v>0.02994992175048863</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>57</v>
+      </c>
+      <c r="J76" t="n">
+        <v>121</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2043847361.866465</v>
+        <v>1499283924.383867</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1201918669675204</v>
+        <v>0.1231040931081509</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02160644461678428</v>
+        <v>0.02973281430841502</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4524940259.705291</v>
+        <v>3466044942.079112</v>
       </c>
       <c r="F78" t="n">
-        <v>0.101189431891066</v>
+        <v>0.1154796258489546</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04832896673808253</v>
+        <v>0.04156860335164213</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>60</v>
+      </c>
+      <c r="J78" t="n">
+        <v>123</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1426694093.471739</v>
+        <v>1416036088.030025</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1730477989051703</v>
+        <v>0.1292640661096834</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02875665761795017</v>
+        <v>0.03811696098261606</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3255,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3428130911.071156</v>
+        <v>4195146284.684461</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09835827436384559</v>
+        <v>0.08046810176802803</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02763195290221359</v>
+        <v>0.03530514680686511</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>59</v>
+      </c>
+      <c r="J80" t="n">
+        <v>123</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3296,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3832087465.011151</v>
+        <v>4200414493.243306</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1054656861356116</v>
+        <v>0.08401811323428728</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03170677164400601</v>
+        <v>0.02364693446030912</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>55</v>
+      </c>
+      <c r="J81" t="n">
+        <v>123</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3331,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4691520115.947595</v>
+        <v>5254229081.984946</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1362801956975927</v>
+        <v>0.1350596186630304</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02598338180825572</v>
+        <v>0.02748046867603684</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>85</v>
+      </c>
+      <c r="J82" t="n">
+        <v>123</v>
+      </c>
+      <c r="K82" t="n">
+        <v>160.1425505502096</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2349956370.105013</v>
+        <v>2454981314.141944</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1369097192276443</v>
+        <v>0.1503870309315318</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04171190075699498</v>
+        <v>0.0324510414826203</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1736774054.88937</v>
+        <v>2520656994.457664</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08300879163478184</v>
+        <v>0.1071745388728765</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0388264889218374</v>
+        <v>0.03747958662064698</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3438,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2895014612.674428</v>
+        <v>2636574372.704514</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1289220780809729</v>
+        <v>0.1640421796969321</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04353686890130474</v>
+        <v>0.0434671074586743</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>19</v>
+      </c>
+      <c r="J85" t="n">
+        <v>106</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3473,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2618363070.433991</v>
+        <v>1758124763.037197</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1566888621335557</v>
+        <v>0.110294929959584</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0180010799843338</v>
+        <v>0.01912851919510323</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1506869431.34286</v>
+        <v>1450511718.053318</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1811371991847068</v>
+        <v>0.1636649496137337</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03552670160922797</v>
+        <v>0.03834054587692973</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3537,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2249973023.048495</v>
+        <v>2773375539.669734</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1316787368626845</v>
+        <v>0.1101038240650399</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03189872011594194</v>
+        <v>0.03700807109151727</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>18</v>
+      </c>
+      <c r="J88" t="n">
+        <v>122</v>
+      </c>
+      <c r="K88" t="n">
+        <v>62.95120187589189</v>
       </c>
     </row>
     <row r="89">
@@ -2922,17 +3580,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3203699916.355962</v>
+        <v>2962563518.517426</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1321519808249557</v>
+        <v>0.1570870839693339</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0297934181913473</v>
+        <v>0.03704397155363714</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>97</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3615,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2123092565.109185</v>
+        <v>1597593029.48727</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09713362630052218</v>
+        <v>0.1370324192009103</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03606742487037021</v>
+        <v>0.0548430810963289</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1953529822.249815</v>
+        <v>1809017919.472283</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1499862946918134</v>
+        <v>0.1924707657658947</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06197492262918503</v>
+        <v>0.05664521252165089</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2637552400.211664</v>
+        <v>2765277923.314804</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07088969521981155</v>
+        <v>0.09875704824516113</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02886722076185321</v>
+        <v>0.03053255638779962</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3744467300.711452</v>
+        <v>3547401108.937858</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0976145131673546</v>
+        <v>0.1163598680381966</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04066001407226651</v>
+        <v>0.03460101237877115</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>56</v>
+      </c>
+      <c r="J93" t="n">
+        <v>122</v>
+      </c>
+      <c r="K93" t="n">
+        <v>89.97884460258634</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1873729363.058265</v>
+        <v>2283114009.025465</v>
       </c>
       <c r="F94" t="n">
-        <v>0.168106902019207</v>
+        <v>0.1067766216746108</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02915152875103521</v>
+        <v>0.03607490296655398</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2026287364.128887</v>
+        <v>3115495210.976554</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1152169946417324</v>
+        <v>0.1140083564219754</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04511572820193396</v>
+        <v>0.04542265869645676</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1469283503.099424</v>
+        <v>2270214955.619836</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09312760281457973</v>
+        <v>0.1260672217025125</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04201385804271109</v>
+        <v>0.04102240416626031</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4693638983.763507</v>
+        <v>4413439253.367877</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1361455527529786</v>
+        <v>0.1392055689546708</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01960070903161741</v>
+        <v>0.02210860847551936</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>59</v>
+      </c>
+      <c r="J97" t="n">
+        <v>122</v>
+      </c>
+      <c r="K97" t="n">
+        <v>147.6176002628673</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3732037113.40344</v>
+        <v>3175311260.815969</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1024907763243559</v>
+        <v>0.1106700793609963</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02387202797188724</v>
+        <v>0.02882224950761314</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>29</v>
+      </c>
+      <c r="J98" t="n">
+        <v>121</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3020539768.436292</v>
+        <v>2581169227.49071</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1268104887779386</v>
+        <v>0.1239505156234668</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02272800123340674</v>
+        <v>0.02496883606973386</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3678467878.27903</v>
+        <v>3103098650.275777</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1678019944514358</v>
+        <v>0.1690458326222021</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02214938095242733</v>
+        <v>0.02824017018145734</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>51</v>
+      </c>
+      <c r="J100" t="n">
+        <v>122</v>
+      </c>
+      <c r="K100" t="n">
+        <v>68.34100942622169</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3503381993.090332</v>
+        <v>2826650322.288136</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1911691696401022</v>
+        <v>0.2023701647524379</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05127973028148894</v>
+        <v>0.04759543701789352</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>7</v>
+      </c>
+      <c r="J101" t="n">
+        <v>119</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
